--- a/biology/Zoologie/Archon_(genre)/Archon_(genre).xlsx
+++ b/biology/Zoologie/Archon_(genre)/Archon_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archon est un genre de lépidoptères de la famille des Papilionidae et de la sous-famille des Parnassiinae.
 </t>
@@ -511,13 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Archon a été décrit par l'entomologiste allemand Jakob Hübner en 1822. L'espèce type est Archon apollinus.
-Liste des espèces
-Archon apollinus (Herbst, 1798) — le Faux Apollon, espèce type pour le genre.
-Archon apollinaris (Staudinger, [1892]) — le Faux Apollon kurde.
-Archon bostanchii de Freina &amp; Naderi, 2003 — le Faux Apollon du Louristan.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Archon a été décrit par l'entomologiste allemand Jakob Hübner en 1822. L'espèce type est Archon apollinus.
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Archon apollinus (Herbst, 1798) — le Faux Apollon, espèce type pour le genre.
+Archon apollinaris (Staudinger, ) — le Faux Apollon kurde.
+Archon bostanchii de Freina &amp; Naderi, 2003 — le Faux Apollon du Louristan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archon_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archon_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces du genre Archon sont présentes en Asie Mineure et/ou dans des territoires proches, de la Grèce et la Bulgarie à l'Iran.
 </t>
